--- a/Taches.xlsx
+++ b/Taches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swann\Documents\GitHub\env-300-analyse_poluants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F0873F-E306-4FEB-8180-FBF1273A354B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6680B328-B366-402E-889D-7BC89D841F76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5835" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
